--- a/2ИСИП-322_ТерВер.xlsx
+++ b/2ИСИП-322_ТерВер.xlsx
@@ -553,13 +553,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M28" sqref="M28"/>
+      <selection pane="bottomRight" activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -569,12 +569,12 @@
     <col min="3" max="10" width="4.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
@@ -606,7 +606,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1">
         <v>1</v>
       </c>
@@ -635,8 +635,20 @@
       <c r="L3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -681,8 +693,24 @@
         <f>O4-M4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R4">
+        <f>IF(R$3=$M4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:U19" si="1">IF(S$3=$M4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -724,11 +752,27 @@
         <v>5</v>
       </c>
       <c r="P5">
-        <f t="shared" ref="P5:P30" si="1">O5-M5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="P5:P30" si="2">O5-M5</f>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5:U30" si="3">IF(R$3=$M5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -770,11 +814,27 @@
         <v>4</v>
       </c>
       <c r="P6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -816,11 +876,27 @@
         <v>4</v>
       </c>
       <c r="P7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -862,11 +938,27 @@
         <v>5</v>
       </c>
       <c r="P8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -908,11 +1000,27 @@
         <v>5</v>
       </c>
       <c r="P9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -954,11 +1062,27 @@
         <v>3</v>
       </c>
       <c r="P10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1000,11 +1124,27 @@
         <v>5</v>
       </c>
       <c r="P11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1046,11 +1186,27 @@
         <v>5</v>
       </c>
       <c r="P12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1092,11 +1248,27 @@
         <v>5</v>
       </c>
       <c r="P13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1138,11 +1310,27 @@
         <v>5</v>
       </c>
       <c r="P14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1184,11 +1372,27 @@
         <v>5</v>
       </c>
       <c r="P15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1230,11 +1434,27 @@
         <v>5</v>
       </c>
       <c r="P16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1276,11 +1496,27 @@
         <v>5</v>
       </c>
       <c r="P17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1322,11 +1558,27 @@
         <v>5</v>
       </c>
       <c r="P18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1368,11 +1620,27 @@
         <v>5</v>
       </c>
       <c r="P19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1414,11 +1682,27 @@
         <v>5</v>
       </c>
       <c r="P20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1460,11 +1744,27 @@
         <v>5</v>
       </c>
       <c r="P21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1506,11 +1806,27 @@
         <v>5</v>
       </c>
       <c r="P22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1552,11 +1868,27 @@
         <v>5</v>
       </c>
       <c r="P23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1598,11 +1930,27 @@
         <v>5</v>
       </c>
       <c r="P24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1644,11 +1992,27 @@
         <v>5</v>
       </c>
       <c r="P25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1690,11 +2054,27 @@
         <v>5</v>
       </c>
       <c r="P26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1736,11 +2116,27 @@
         <v>5</v>
       </c>
       <c r="P27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1782,11 +2178,27 @@
         <v>5</v>
       </c>
       <c r="P28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1828,11 +2240,27 @@
         <v>3</v>
       </c>
       <c r="P29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1874,11 +2302,27 @@
         <v>5</v>
       </c>
       <c r="P30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1889,6 +2333,18 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="C4:J30 M12:M30 M4:M10">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L30">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1900,7 +2356,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L30">
+  <conditionalFormatting sqref="M11">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1912,7 +2368,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11">
+  <conditionalFormatting sqref="R4:U30">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/2ИСИП-322_ТерВер.xlsx
+++ b/2ИСИП-322_ТерВер.xlsx
@@ -553,13 +553,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="H13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T15" sqref="T15"/>
+      <selection pane="bottomRight" activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2329,6 +2329,38 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>3</v>
+      </c>
+      <c r="T32">
+        <v>4</v>
+      </c>
+      <c r="U32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="18:21" x14ac:dyDescent="0.25">
+      <c r="R34">
+        <f>SUM(R4:R30)</f>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f t="shared" ref="S34:U34" si="4">SUM(S4:S30)</f>
+        <v>2</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
